--- a/docs/画面項目定義書/virtual_machine_management/mo_virtual_machine_edit.xlsx
+++ b/docs/画面項目定義書/virtual_machine_management/mo_virtual_machine_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE17BA1-56BB-40F5-A4E9-4DCE7D739D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA488C1E-55B3-42AE-B649-0550D81B208B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="2220" windowWidth="21600" windowHeight="11295" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="仮想マシン詳細編集画面" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>日本工学院</t>
   </si>
@@ -68,517 +68,10 @@
     <t>処理</t>
   </si>
   <si>
-    <t>ページタイトル</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>表示</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仮想マシン詳細</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>編集ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ボタン</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>編集</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>サイドバー</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Ref(利用者サイドバー)</t>
-    <rPh sb="4" eb="7">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>確認ポップアップ</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>非表示</t>
-    <rPh sb="0" eb="3">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>はい(ポップアップ内)</t>
-    <rPh sb="9" eb="10">
-      <t>ナイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>いいえ(ポップアップ内)</t>
-    <rPh sb="10" eb="11">
-      <t>ナイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仮想マシンタイプの変更</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仮想マシンタイプラベル</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仮想マシンタイプ</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>プルダウンメニュー</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仮想マシンタイプエンティティから取得し、繰り返し表示</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>NIC一覧</t>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>確認ポップアップを表示</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>確認ポップアップを非表示</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>非表示(仮想マシンタイプの変更)</t>
-    <rPh sb="0" eb="3">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>非表示(仮想マシンタイプ)</t>
-    <rPh sb="0" eb="3">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カソウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仮想マシンタイプ、仮想マシンタイプラベルを表示、再度押した場合非表示</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>NIC名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ネットワーク</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>IPアドレス</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>非表示(仮想マシンエンティティより)</t>
   </si>
   <si>
-    <t>非表示(仮想マシンエンティティより)</t>
-    <rPh sb="0" eb="3">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カソウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>非表示(仮想ネットワークエンティティより)</t>
-    <rPh sb="4" eb="6">
-      <t>カソウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仮想ネットワーク選択</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>NIC追加</t>
-    <rPh sb="3" eb="5">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>NIC名、ネットワーク、IPアドレス、仮想ネットワーク選択、NIC追加を表示</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>仮想マシンエンティティから取得し、繰り返し表示</t>
-  </si>
-  <si>
-    <t>仮想マシンエンティティから取得し、繰り返し表示</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仮想マシンエンティティから取得し、繰り返し表示</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仮想ネットワークエンティティから取得し、繰り返し表示</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仮想マシン名の変更</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>新しい仮想マシン名ラベル</t>
-    <rPh sb="0" eb="1">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>新しい仮想マシン名</t>
-    <rPh sb="0" eb="1">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>テキストボックス</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>新しい仮想マシン名、新しい仮想マシン名ラベルを表示</t>
-    <rPh sb="0" eb="1">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>非表示(新しい仮想マシン名)</t>
-    <rPh sb="0" eb="3">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ストレージの管理</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ストレージ名</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ストレージタイプ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>サイズ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>デバイスファイル</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ストレージ追加</t>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>非表示(仮想マシンエンティティ、仮想マシンタイプエンティティより)</t>
-    <rPh sb="0" eb="3">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カソウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>セキュリティグループの管理</t>
-    <rPh sb="11" eb="13">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>セキュリティグループ名</t>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>非表示(追加)</t>
-    <rPh sb="0" eb="3">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>セキュリティグループ追加</t>
-    <rPh sb="10" eb="12">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ストレージ名、ストレージタイプ、サイズ、デバイスファイル、ストレージ追加を表示</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>セキュリティグループ名、説明、セキュリティグループ追加を表示</t>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>virtual_machine_detail_edit</t>
@@ -589,37 +82,166 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>サイドバー</t>
+  </si>
+  <si>
+    <t>Ref(利用者サイドバー)</t>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+  </si>
+  <si>
+    <t>表示</t>
+  </si>
+  <si>
+    <t>仮想マシン詳細</t>
+  </si>
+  <si>
+    <t>編集ボタン</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>編集</t>
+  </si>
+  <si>
+    <t>確認ポップアップを表示</t>
+  </si>
+  <si>
+    <t>確認ポップアップ</t>
+  </si>
+  <si>
+    <t>非表示</t>
+  </si>
+  <si>
+    <t>はい(ポップアップ内)</t>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示</t>
+  </si>
+  <si>
+    <t>いいえ(ポップアップ内)</t>
+  </si>
+  <si>
+    <t>仮想マシンタイプの変更</t>
+  </si>
+  <si>
+    <t>非表示(仮想マシンタイプの変更)</t>
+  </si>
+  <si>
+    <t>仮想マシンタイプ、仮想マシンタイプラベルを表示、再度押した場合非表示</t>
+  </si>
+  <si>
+    <t>仮想マシンタイプラベル</t>
+  </si>
+  <si>
+    <t>非表示(仮想マシンタイプ)</t>
+  </si>
+  <si>
+    <t>仮想マシンタイプ</t>
+  </si>
+  <si>
+    <t>プルダウンメニュー</t>
+  </si>
+  <si>
+    <t>非表示(仮想マシンエンティティ、仮想マシンタイプエンティティより)</t>
+  </si>
+  <si>
+    <t>仮想マシンタイプエンティティから取得し、繰り返し表示</t>
+  </si>
+  <si>
+    <t>NIC一覧</t>
+  </si>
+  <si>
+    <t>NIC名、ネットワーク、IPアドレス、仮想ネットワーク選択、NIC追加を表示</t>
+  </si>
+  <si>
+    <t>NIC名</t>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+  </si>
+  <si>
+    <t>仮想ネットワーク選択</t>
+  </si>
+  <si>
+    <t>非表示(仮想ネットワークエンティティより)</t>
+  </si>
+  <si>
+    <t>仮想ネットワークエンティティから取得し、繰り返し表示</t>
+  </si>
+  <si>
+    <t>NIC追加</t>
+  </si>
+  <si>
+    <t>非表示(追加)</t>
+  </si>
+  <si>
+    <t>押下時、NICを追加</t>
+  </si>
+  <si>
+    <t>仮想マシン名の変更</t>
+  </si>
+  <si>
+    <t>新しい仮想マシン名、新しい仮想マシン名ラベルを表示</t>
+  </si>
+  <si>
+    <t>新しい仮想マシン名ラベル</t>
+  </si>
+  <si>
+    <t>非表示(新しい仮想マシン名)</t>
+  </si>
+  <si>
+    <t>新しい仮想マシン名</t>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+  </si>
+  <si>
+    <t>ストレージの管理</t>
+  </si>
+  <si>
+    <t>ストレージ名、ストレージタイプ、サイズ、デバイスファイル、ストレージ追加を表示</t>
+  </si>
+  <si>
+    <t>ストレージ名</t>
+  </si>
+  <si>
+    <t>ストレージタイプ</t>
+  </si>
+  <si>
+    <t>サイズ</t>
+  </si>
+  <si>
+    <t>デバイスファイル</t>
+  </si>
+  <si>
+    <t>ストレージ追加</t>
+  </si>
+  <si>
+    <t>押下時、ストレージを追加</t>
+  </si>
+  <si>
+    <t>セキュリティグループの管理</t>
+  </si>
+  <si>
+    <t>セキュリティグループ名、説明、セキュリティグループ追加を表示</t>
+  </si>
+  <si>
+    <t>セキュリティグループ名</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>セキュリティグループ追加</t>
+  </si>
+  <si>
     <t>押下時、セキュリティグループを追加</t>
-    <rPh sb="0" eb="3">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>押下時、ストレージを追加</t>
-    <rPh sb="0" eb="2">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>押下時、NICを追加</t>
-    <rPh sb="0" eb="3">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1588,11 +1210,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="1.1000000000000001"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
@@ -1602,7 +1224,7 @@
     <col min="7" max="7" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1235,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1622,7 +1244,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1631,7 +1253,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1640,7 +1262,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
@@ -1653,20 +1275,20 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="1.25">
       <c r="A6" s="40" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="15" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="26"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1675,7 +1297,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1698,273 +1320,273 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A9" s="5"/>
       <c r="B9" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="22"/>
       <c r="E9" s="29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A10" s="6"/>
       <c r="B10" s="12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="28" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A11" s="6"/>
       <c r="B11" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="22"/>
       <c r="E12" s="29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A13" s="6"/>
       <c r="B13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A16" s="6"/>
       <c r="B16" s="13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A17" s="5"/>
       <c r="B17" s="13" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="29" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A18" s="6"/>
       <c r="B18" s="13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="29" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A19" s="6"/>
       <c r="B19" s="13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="29" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="29" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A21" s="6"/>
       <c r="B21" s="13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="29" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A22" s="6"/>
       <c r="B22" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A23" s="6"/>
       <c r="B23" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="29" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A24" s="6"/>
       <c r="B24" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A25" s="6"/>
       <c r="B25" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="29" t="s">
@@ -1973,192 +1595,192 @@
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A26" s="6"/>
       <c r="B26" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A27" s="6"/>
       <c r="B27" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A28" s="6"/>
       <c r="B28" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="29" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A29" s="6"/>
       <c r="B29" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="29" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A30" s="6"/>
       <c r="B30" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="29" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A31" s="6"/>
       <c r="B31" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="29" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A32" s="6"/>
       <c r="B32" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="29" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A33" s="6"/>
       <c r="B33" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A34" s="6"/>
       <c r="B34" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="29" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A35" s="6"/>
       <c r="B35" s="13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="29" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A36" s="6"/>
       <c r="B36" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="29" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A37" s="6"/>
       <c r="B37" s="13"/>
       <c r="C37" s="17"/>
@@ -2167,7 +1789,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="36"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>

--- a/docs/画面項目定義書/virtual_machine_management/mo_virtual_machine_edit.xlsx
+++ b/docs/画面項目定義書/virtual_machine_management/mo_virtual_machine_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\Documents\git\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE17BA1-56BB-40F5-A4E9-4DCE7D739D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7FBE0C-69F7-4116-B218-8A1E39696100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="2220" windowWidth="21600" windowHeight="11295" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="630" yWindow="5580" windowWidth="21600" windowHeight="12645" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="仮想マシン詳細編集画面" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>日本工学院</t>
   </si>
@@ -581,14 +581,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>virtual_machine_detail_edit</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>virtual_machine_detail_edit.html</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>押下時、セキュリティグループを追加</t>
     <rPh sb="0" eb="3">
       <t>オウカジ</t>
@@ -618,6 +610,44 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮想マシン編集</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>virtual_machine_edit.html</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>×釦</t>
+    <rPh sb="1" eb="2">
+      <t>ボタン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>✕</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>押下時、virtual_machine_dashboardに遷移</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1588,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1655,11 +1685,11 @@
     </row>
     <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="26"/>
@@ -1938,7 +1968,7 @@
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.4">
@@ -2087,7 +2117,7 @@
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="24" x14ac:dyDescent="0.4">
@@ -2155,17 +2185,25 @@
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="6"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="D37" s="22"/>
-      <c r="E37" s="29"/>
+      <c r="E37" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="F37" s="32"/>
-      <c r="G37" s="36"/>
+      <c r="G37" s="36" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>

--- a/docs/画面項目定義書/virtual_machine_management/mo_virtual_machine_edit.xlsx
+++ b/docs/画面項目定義書/virtual_machine_management/mo_virtual_machine_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\Documents\git\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7FBE0C-69F7-4116-B218-8A1E39696100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D29A06E-89A6-4C77-BAFC-909A21745D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="5580" windowWidth="21600" windowHeight="12645" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="仮想マシン詳細編集画面" sheetId="1" r:id="rId1"/>
@@ -639,14 +639,14 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>押下時、virtual_machine_dashboardに遷移</t>
+    <t>押下時、virtual_machine_dashboard.htmlに遷移</t>
     <rPh sb="0" eb="2">
       <t>オウカ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ジ</t>
     </rPh>
-    <rPh sb="30" eb="32">
+    <rPh sb="35" eb="37">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -1618,11 +1618,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="1.1000000000000001"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
@@ -1632,7 +1632,7 @@
     <col min="7" max="7" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1652,7 +1652,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1661,7 +1661,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1670,7 +1670,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="1.25">
       <c r="A6" s="40" t="s">
         <v>69</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1705,7 +1705,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A9" s="5"/>
       <c r="B9" s="13" t="s">
         <v>16</v>
@@ -1741,7 +1741,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A10" s="6"/>
       <c r="B10" s="12" t="s">
         <v>10</v>
@@ -1756,7 +1756,7 @@
       <c r="F10" s="31"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A11" s="6"/>
       <c r="B11" s="13" t="s">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
         <v>18</v>
@@ -1786,7 +1786,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A13" s="6"/>
       <c r="B13" s="13" t="s">
         <v>20</v>
@@ -1803,7 +1803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
         <v>21</v>
@@ -1820,7 +1820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
         <v>22</v>
@@ -1837,7 +1837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A16" s="6"/>
       <c r="B16" s="13" t="s">
         <v>23</v>
@@ -1852,7 +1852,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A17" s="5"/>
       <c r="B17" s="13" t="s">
         <v>24</v>
@@ -1869,7 +1869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A18" s="6"/>
       <c r="B18" s="13" t="s">
         <v>27</v>
@@ -1886,7 +1886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A19" s="6"/>
       <c r="B19" s="13" t="s">
         <v>33</v>
@@ -1903,7 +1903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="s">
         <v>34</v>
@@ -1920,7 +1920,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A21" s="6"/>
       <c r="B21" s="13" t="s">
         <v>35</v>
@@ -1937,7 +1937,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A22" s="6"/>
       <c r="B22" s="13" t="s">
         <v>39</v>
@@ -1954,7 +1954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A23" s="6"/>
       <c r="B23" s="13" t="s">
         <v>40</v>
@@ -1971,7 +1971,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A24" s="6"/>
       <c r="B24" s="13" t="s">
         <v>46</v>
@@ -1988,7 +1988,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A25" s="6"/>
       <c r="B25" s="13" t="s">
         <v>47</v>
@@ -2003,7 +2003,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A26" s="6"/>
       <c r="B26" s="13" t="s">
         <v>48</v>
@@ -2018,7 +2018,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A27" s="6"/>
       <c r="B27" s="13" t="s">
         <v>52</v>
@@ -2035,7 +2035,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A28" s="6"/>
       <c r="B28" s="13" t="s">
         <v>53</v>
@@ -2052,7 +2052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A29" s="6"/>
       <c r="B29" s="13" t="s">
         <v>54</v>
@@ -2069,7 +2069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A30" s="6"/>
       <c r="B30" s="13" t="s">
         <v>55</v>
@@ -2086,7 +2086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A31" s="6"/>
       <c r="B31" s="13" t="s">
         <v>56</v>
@@ -2103,7 +2103,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A32" s="6"/>
       <c r="B32" s="13" t="s">
         <v>57</v>
@@ -2120,7 +2120,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A33" s="6"/>
       <c r="B33" s="13" t="s">
         <v>59</v>
@@ -2137,7 +2137,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A34" s="6"/>
       <c r="B34" s="13" t="s">
         <v>60</v>
@@ -2154,7 +2154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A35" s="6"/>
       <c r="B35" s="13" t="s">
         <v>61</v>
@@ -2171,7 +2171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A36" s="6"/>
       <c r="B36" s="13" t="s">
         <v>63</v>
@@ -2188,7 +2188,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A37" s="6"/>
       <c r="B37" s="13" t="s">
         <v>71</v>
@@ -2205,7 +2205,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>

--- a/docs/画面項目定義書/virtual_machine_management/mo_virtual_machine_edit.xlsx
+++ b/docs/画面項目定義書/virtual_machine_management/mo_virtual_machine_edit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D29A06E-89A6-4C77-BAFC-909A21745D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC718F7-6D53-43A0-957B-FC6B1F154D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="仮想マシン詳細編集画面" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
   <si>
     <t>日本工学院</t>
   </si>
@@ -1618,11 +1618,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="1.1000000000000001"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
@@ -1632,7 +1632,7 @@
     <col min="7" max="7" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1652,7 +1652,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1661,7 +1661,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1670,7 +1670,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="1.25">
+    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="40" t="s">
         <v>69</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1705,7 +1705,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="13" t="s">
         <v>16</v>
@@ -1741,7 +1741,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="12" t="s">
         <v>10</v>
@@ -1756,7 +1756,7 @@
       <c r="F10" s="31"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="13" t="s">
         <v>13</v>
@@ -1773,12 +1773,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="D12" s="22"/>
       <c r="E12" s="29" t="s">
         <v>19</v>
@@ -1786,7 +1788,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="13" t="s">
         <v>20</v>
@@ -1803,7 +1805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
         <v>21</v>
@@ -1820,7 +1822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
+    <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
         <v>22</v>
@@ -1837,7 +1839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="13" t="s">
         <v>23</v>
@@ -1852,7 +1854,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
+    <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="13" t="s">
         <v>24</v>
@@ -1869,7 +1871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
+    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="13" t="s">
         <v>27</v>
@@ -1886,7 +1888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="13" t="s">
         <v>33</v>
@@ -1903,7 +1905,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="s">
         <v>34</v>
@@ -1920,7 +1922,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="B21" s="13" t="s">
         <v>35</v>
@@ -1937,7 +1939,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
+    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="B22" s="13" t="s">
         <v>39</v>
@@ -1954,7 +1956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="B23" s="13" t="s">
         <v>40</v>
@@ -1971,7 +1973,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
+    <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="13" t="s">
         <v>46</v>
@@ -1988,7 +1990,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6"/>
       <c r="B25" s="13" t="s">
         <v>47</v>
@@ -2003,7 +2005,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6"/>
       <c r="B26" s="13" t="s">
         <v>48</v>
@@ -2018,7 +2020,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
+    <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A27" s="6"/>
       <c r="B27" s="13" t="s">
         <v>52</v>
@@ -2035,7 +2037,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6"/>
       <c r="B28" s="13" t="s">
         <v>53</v>
@@ -2052,7 +2054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6"/>
       <c r="B29" s="13" t="s">
         <v>54</v>
@@ -2069,7 +2071,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="13" t="s">
         <v>55</v>
@@ -2086,7 +2088,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="6"/>
       <c r="B31" s="13" t="s">
         <v>56</v>
@@ -2103,7 +2105,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="6"/>
       <c r="B32" s="13" t="s">
         <v>57</v>
@@ -2120,7 +2122,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
+    <row r="33" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="13" t="s">
         <v>59</v>
@@ -2137,7 +2139,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="13" t="s">
         <v>60</v>
@@ -2154,7 +2156,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="13" t="s">
         <v>61</v>
@@ -2171,7 +2173,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="6"/>
       <c r="B36" s="13" t="s">
         <v>63</v>
@@ -2188,7 +2190,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="6"/>
       <c r="B37" s="13" t="s">
         <v>71</v>
@@ -2205,7 +2207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
